--- a/K1/FinalCodeV1/Reactor_dim.xlsx
+++ b/K1/FinalCodeV1/Reactor_dim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc Thomson\Documents\School Docs\College\Senior Year\Second Semester\Design\DesignCode\K1\FinalCodeV1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E191ED8C-9294-4CDD-B74C-7648CFD94D97}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA7D472-F69B-484A-8D60-C814C2D9A168}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9024" xr2:uid="{FC3D620F-3696-4817-B28C-5EC41E44EE36}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Vessel Volume (mL)</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Vessel</t>
   </si>
   <si>
-    <t>Batch/Perfusion 20L</t>
-  </si>
-  <si>
     <t>Perfusion 100L</t>
   </si>
   <si>
@@ -58,6 +55,12 @@
   </si>
   <si>
     <t>Hydrostatic drop (kPa)</t>
+  </si>
+  <si>
+    <t>Batch 20L</t>
+  </si>
+  <si>
+    <t>Perfusion 20 L</t>
   </si>
 </sst>
 </file>
@@ -65,7 +68,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -99,7 +102,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -415,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07046894-584B-4717-A716-5A08A9841F9B}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -442,52 +445,52 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1">
         <v>20000</v>
       </c>
       <c r="C2" s="2">
-        <f>(B2*4/(3*PI()))^(1/3)/100</f>
-        <v>0.20398878279639124</v>
+        <f>C3</f>
+        <v>0.34881591197368633</v>
       </c>
       <c r="D2" s="2">
-        <f>C2*3</f>
-        <v>0.61196634838917374</v>
+        <f>B2/1000000/(C2^2*PI()/4)</f>
+        <v>0.2092895471842118</v>
       </c>
       <c r="E2" s="3">
         <f>D2*9.8</f>
-        <v>5.9972702142139029</v>
+        <v>2.0510375624052757</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>100000</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C7" si="0">(B3*4/(3*PI()))^(1/3)/100</f>
+        <f t="shared" ref="C3:C4" si="0">(B3*4/(3*PI()))^(1/3)/100</f>
         <v>0.34881591197368633</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D7" si="1">C3*3</f>
+        <f t="shared" ref="D3:D4" si="1">C3*3</f>
         <v>1.0464477359210589</v>
       </c>
       <c r="E3" s="3">
-        <f t="shared" ref="E3:E7" si="2">D3*9.8</f>
+        <f t="shared" ref="E3:E4" si="2">D3*9.8</f>
         <v>10.255187812026378</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>500000</v>
@@ -507,61 +510,81 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
-        <v>80000</v>
+        <v>20000</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" si="0"/>
-        <v>0.32381200840070401</v>
+        <f>(B5*4/(3*PI()))^(1/3)/100</f>
+        <v>0.20398878279639124</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="1"/>
-        <v>0.97143602520211203</v>
+        <f>C5*3</f>
+        <v>0.61196634838917374</v>
       </c>
       <c r="E5" s="3">
-        <f t="shared" si="2"/>
-        <v>9.5200730469806985</v>
+        <f>D5*9.8</f>
+        <v>5.9972702142139029</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>400000</v>
+        <v>80000</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" si="0"/>
-        <v>0.55371074561027633</v>
+        <f>(B6*4/(3*PI()))^(1/3)/100</f>
+        <v>0.32381200840070401</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="1"/>
-        <v>1.661132236830829</v>
+        <f>C6*3</f>
+        <v>0.97143602520211203</v>
       </c>
       <c r="E6" s="3">
-        <f t="shared" si="2"/>
-        <v>16.279095920942126</v>
+        <f>D6*9.8</f>
+        <v>9.5200730469806985</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
+        <v>400000</v>
+      </c>
+      <c r="C7" s="2">
+        <f>(B7*4/(3*PI()))^(1/3)/100</f>
+        <v>0.55371074561027633</v>
+      </c>
+      <c r="D7" s="2">
+        <f>C7*3</f>
+        <v>1.661132236830829</v>
+      </c>
+      <c r="E7" s="3">
+        <f>D7*9.8</f>
+        <v>16.279095920942126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
         <v>2000000</v>
       </c>
-      <c r="C7" s="2">
-        <f t="shared" si="0"/>
+      <c r="C8" s="2">
+        <f>(B8*4/(3*PI()))^(1/3)/100</f>
         <v>0.94683205640999235</v>
       </c>
-      <c r="D7" s="2">
-        <f t="shared" si="1"/>
+      <c r="D8" s="2">
+        <f>C8*3</f>
         <v>2.8404961692299771</v>
       </c>
-      <c r="E7" s="3">
-        <f t="shared" si="2"/>
+      <c r="E8" s="3">
+        <f>D8*9.8</f>
         <v>27.836862458453776</v>
       </c>
     </row>
